--- a/m2d/Assets/parameters.xlsx
+++ b/m2d/Assets/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Unity/m2d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Suimaru/Documents/SideProjects/mah-jong/m2d/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -554,7 +554,7 @@
       </c>
       <c r="K10">
         <f>G11+G16+G10+G16+G11</f>
-        <v>1288</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -563,14 +563,14 @@
       </c>
       <c r="G11">
         <f>B3*3 + B6*2</f>
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
       </c>
       <c r="K11">
         <f>K10</f>
-        <v>1288</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">

--- a/m2d/Assets/parameters.xlsx
+++ b/m2d/Assets/parameters.xlsx
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,6 +602,12 @@
         <v>9</v>
       </c>
     </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <f>-240-82*4+41</f>
+        <v>-527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
